--- a/macrogenwww-web/macrogenwww-web-admin/src/main/webapp/WEB-INF/excel/LOGIN_LOG.xlsx
+++ b/macrogenwww-web/macrogenwww-web-admin/src/main/webapp/WEB-INF/excel/LOGIN_LOG.xlsx
@@ -19,46 +19,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.loginId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.loginResult}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.reason}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.ip}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>${list.regDt}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>조회일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>결과</t>
+  </si>
+  <si>
+    <t>사유</t>
+  </si>
+  <si>
+    <t>아이피</t>
+  </si>
+  <si>
     <t>로그인 시도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.loginId}</t>
+  </si>
+  <si>
+    <t>${list.loginResult}</t>
+  </si>
+  <si>
+    <t>${list.reason}</t>
+  </si>
+  <si>
+    <t>${list.ip}</t>
+  </si>
+  <si>
+    <t>${list.regDt}</t>
   </si>
 </sst>
 </file>
@@ -466,55 +464,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="49.125" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="48.875" customWidth="1"/>
-    <col min="10" max="11" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="48.875" customWidth="1"/>
+    <col min="11" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
